--- a/generate_data/family_tree/starter.xlsx
+++ b/generate_data/family_tree/starter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TKLua\parser\family_tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2FCBFD-F5EE-4857-B65F-52B3AEAEC0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94E0CCE-C55C-4E9D-AEF8-CA51C5F00F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="614">
   <si>
     <t>3k_dlc_04_template_historical_chen_gui_water:Rise of the Warlords:3k_main_campaign_map:3k_dlc04_faction_chen_gui:1694481295:1859166318</t>
   </si>
@@ -69,9 +69,6 @@
     <t>spouse</t>
   </si>
   <si>
-    <t>3k_main_template_generic_fire_general_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_dlc04_faction_liu_xun:776331693:218411280</t>
-  </si>
-  <si>
     <t>3k_dlc04_template_historical_lu_jun_earth:Rise of the Warlords:3k_main_campaign_map:3k_dlc04_faction_lu_kang:1080544583:1047129164</t>
   </si>
   <si>
@@ -108,27 +105,12 @@
     <t>3k_dlc04_template_historical_zhou_ang_earth:Rise of the Warlords:3k_main_campaign_map:ironic_faction_chen_wen:819340564:1066077065</t>
   </si>
   <si>
-    <t>3k_main_template_generic_metal_general_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:ironic_faction_chen_wen:819340564:2010554031</t>
-  </si>
-  <si>
     <t>3k_dlc04_template_historical_zhou_yu_renming_fire:Rise of the Warlords:3k_main_campaign_map:ironic_faction_chen_wen:819340564:589499845</t>
   </si>
   <si>
-    <t>3k_dlc05_template_generic_bandit_earth_agent_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:ironic_faction_wuhuan_tribes:707621579:523284834</t>
-  </si>
-  <si>
-    <t>3k_dlc05_template_generic_bandit_earth_minister_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:ironic_faction_wuhuan_tribes:707621579:2031958910</t>
-  </si>
-  <si>
-    <t>3k_dlc05_template_generic_bandit_metal_agent_legendary_m_hero:Rise of the Warlords:3k_main_campaign_map:ironic_faction_xianbei_kuitou:88737056:260779459</t>
-  </si>
-  <si>
     <t>ironic_template_historical_tanshihuai_hero_metal:Rise of the Warlords:3k_main_campaign_map:ironic_faction_xianbei_kuitou:88737056:458384100</t>
   </si>
   <si>
-    <t>3k_dlc05_template_generic_bandit_metal_villager_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:ironic_faction_xianbei_tuoba:350666268:871401394</t>
-  </si>
-  <si>
     <t>ironic_template_historical_murong_hero_metal:Rise of the Warlords:3k_main_campaign_map:ironic_faction_xianbei_tuoba:350666268:1768037223</t>
   </si>
   <si>
@@ -258,9 +240,6 @@
     <t>3k_main_template_ancestral_sun_zhong:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_sun_jian:2120137601:747362218</t>
   </si>
   <si>
-    <t>3k_main_template_generic_fire_envoy_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_sun_jian:2120137601:1276921292</t>
-  </si>
-  <si>
     <t>3k_main_template_ancestral_yuan_feng:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_yuan_shao:2120137610:1800173809</t>
   </si>
   <si>
@@ -387,33 +366,9 @@
     <t>3k_main_template_generated_ze_bu_hero_wood:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_zhai_rong:1570674462:879448752</t>
   </si>
   <si>
-    <t>3k_main_template_generic_fire_governor_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_sun_jian:2120137601:103244821</t>
-  </si>
-  <si>
-    <t>3k_main_template_generic_fire_governor_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_sun_jian:2120137601:705719690</t>
-  </si>
-  <si>
-    <t>3k_main_template_generic_water_governor_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_gaoliang:1307761329:1142876737</t>
-  </si>
-  <si>
-    <t>3k_main_template_generic_water_governor_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_gaoliang:1307761329:823346678</t>
-  </si>
-  <si>
-    <t>3k_main_template_generic_water_governor_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_gaoliang:1307761329:1156194482</t>
-  </si>
-  <si>
-    <t>3k_main_template_generic_wood_general_legendary_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_yuan_shao:2120137610:380954160</t>
-  </si>
-  <si>
-    <t>3k_main_template_generic_wood_general_legendary_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_yuan_shao:2120137610:550647827</t>
-  </si>
-  <si>
     <t>3k_main_template_historical_bao_xin_hero_metal:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_liu_dai:2120137698:1555538829</t>
   </si>
   <si>
-    <t>3k_main_template_generic_metal_villager_legendary_f_hero:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_liu_dai:2120137698:1128445103</t>
-  </si>
-  <si>
     <t>3k_main_template_historical_bao_xun_hero_water:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_liu_dai:2120137698:227331114</t>
   </si>
   <si>
@@ -534,21 +489,12 @@
     <t>3k_main_template_historical_gu_yong_hero_water:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_wang_lang:2120137730:1988352686</t>
   </si>
   <si>
-    <t>3k_main_template_generic_water_agent_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_wang_lang:2120137730:804233699</t>
-  </si>
-  <si>
     <t>3k_main_template_historical_han_hao_hero_wood:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_wang_kuang:2120137726:998124841</t>
   </si>
   <si>
-    <t>3k_main_template_generic_metal_envoy_legendary_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_wang_kuang:2120137726:1868961052</t>
-  </si>
-  <si>
     <t>3k_main_template_historical_hua_xin_hero_water:Rise of the Warlords:3k_main_campaign_map:3k_dlc05_faction_hua_xin:58990673:1198156928</t>
   </si>
   <si>
-    <t>3k_main_template_generic_fire_governor_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_dlc05_faction_hua_xin:58990673:435257593</t>
-  </si>
-  <si>
     <t>3k_main_template_historical_huang_she_hero_metal:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_huang_zu:2120137667:27140153</t>
   </si>
   <si>
@@ -600,15 +546,9 @@
     <t>ironic_template_historical_zhuo_xiangyun_hero_earth:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_gaoliang:1307761329:1793641759</t>
   </si>
   <si>
-    <t>3k_main_template_generic_water_governor_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_gaoliang:1307761329:609618247</t>
-  </si>
-  <si>
     <t>3k_main_template_historical_li_chao_hero_water:Rise of the Warlords:3k_main_campaign_map:ironic_faction_zhao_wei:144019251:72441233</t>
   </si>
   <si>
-    <t>3k_main_template_generic_water_governor_legendary_m_hero:Rise of the Warlords:3k_main_campaign_map:ironic_faction_zhao_wei:144019251:2060784996</t>
-  </si>
-  <si>
     <t>3k_main_template_historical_li_dian_hero_metal:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_cao_cao:2120137566:1992191487</t>
   </si>
   <si>
@@ -738,9 +678,6 @@
     <t>3k_main_template_historical_ma_liang_hero_water:Rise of the Warlords:3k_main_campaign_map:3k_dlc05_faction_zhu_fu:1342213358:1444167942</t>
   </si>
   <si>
-    <t>3k_main_template_generic_water_governor_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_dlc05_faction_zhu_fu:1342213358:1451278545</t>
-  </si>
-  <si>
     <t>3k_main_template_historical_ma_su_hero_water:Rise of the Warlords:3k_main_campaign_map:3k_dlc05_faction_zhu_fu:1342213358:1788101448</t>
   </si>
   <si>
@@ -846,9 +783,6 @@
     <t>3k_main_template_historical_wang_fu_hero_water:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_jia_long:2120137675:1813197055</t>
   </si>
   <si>
-    <t>3k_main_template_generic_water_governor_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_jia_long:2120137675:388062174</t>
-  </si>
-  <si>
     <t>3k_main_template_historical_wang_shi_hero_fire:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_jia_long:2120137675:88305195</t>
   </si>
   <si>
@@ -864,9 +798,6 @@
     <t>3k_main_template_historical_wu_ju_hero_earth:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_yulin:520656444:646674989</t>
   </si>
   <si>
-    <t>3k_main_template_generic_fire_envoy_legendary_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_yulin:520656444:1187108745</t>
-  </si>
-  <si>
     <t>ironic_template_historical_ru_xun_hero_water:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_yulin:520656444:446034162</t>
   </si>
   <si>
@@ -897,9 +828,6 @@
     <t>3k_main_template_historical_xin_ping_hero_wood:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_han_fu:2120137640:575331303</t>
   </si>
   <si>
-    <t>3k_main_template_generic_water_villager_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_han_fu:2120137640:1023910455</t>
-  </si>
-  <si>
     <t>3k_main_template_historical_xun_you_hero_water:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_han_empire:2120137657:1062020535</t>
   </si>
   <si>
@@ -984,9 +912,6 @@
     <t>3k_main_template_generated_lady_zhang_zhumeng_hero_metal:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_zhang_chao:2120137745:1275239130</t>
   </si>
   <si>
-    <t>3k_main_template_generic_wood_villager_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_zhang_chao:2120137745:175981188</t>
-  </si>
-  <si>
     <t>3k_main_template_historical_zhang_fu_hero_wood:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_zhang_lu:2120137618:702225265</t>
   </si>
   <si>
@@ -1008,9 +933,6 @@
     <t>3k_main_template_historical_zhang_song_hero_water:Rise of the Warlords:3k_main_campaign_map:ironic_faction_zhao_wei:144019251:98509154</t>
   </si>
   <si>
-    <t>3k_main_template_generic_water_governor_legendary_m_hero:Rise of the Warlords:3k_main_campaign_map:ironic_faction_zhao_wei:144019251:1618726467</t>
-  </si>
-  <si>
     <t>3k_main_template_historical_zhang_xiu_hero_fire:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_dong_zhuo:2120137582:643553907</t>
   </si>
   <si>
@@ -1035,9 +957,6 @@
     <t>3k_main_template_historical_zheng_tai_hero_water:Rise of the Warlords:3k_main_campaign_map:3k_dlc05_faction_hua_xin:58990673:788445205</t>
   </si>
   <si>
-    <t>3k_main_template_generic_fire_governor_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_dlc05_faction_hua_xin:58990673:1568789254</t>
-  </si>
-  <si>
     <t>3k_main_template_historical_zheng_yan_hero_wood:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_kong_rong:2120137681:679730381</t>
   </si>
   <si>
@@ -1137,9 +1056,6 @@
     <t>ironic_template_historical_bei_jia_hero_water:Rise of the Warlords:3k_main_campaign_map:ironic_faction_su_dai:1420379793:1583535269</t>
   </si>
   <si>
-    <t>3k_main_template_generic_metal_envoy_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:ironic_faction_su_dai:1420379793:2054583210</t>
-  </si>
-  <si>
     <t>ironic_template_historical_linghu_qian_hero_earth:Rise of the Warlords:3k_main_campaign_map:ironic_faction_su_dai:1420379793:1718123778</t>
   </si>
   <si>
@@ -1185,21 +1101,12 @@
     <t>ironic_template_historical_chenglugui_hero_metal:Rise of the Warlords:3k_main_campaign_map:ironic_faction_xianbei_tuoba:350666268:1303630810</t>
   </si>
   <si>
-    <t>3k_dlc05_template_generic_bandit_metal_villager_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:ironic_faction_xianbei_tuoba:350666268:1683828669</t>
-  </si>
-  <si>
     <t>ironic_template_historical_fan_yufeng_hero_earth:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_cai_mao:2120137630:703683634</t>
   </si>
   <si>
-    <t>3k_main_template_generic_fire_envoy_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_cai_mao:2120137630:604155950</t>
-  </si>
-  <si>
     <t>ironic_template_historical_fei_xin_hero_metal:Rise of the Warlords:3k_main_campaign_map:ironic_faction_fei_zhan:117890960:1215193719</t>
   </si>
   <si>
-    <t>3k_main_template_generic_earth_general_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:ironic_faction_fei_zhan:117890960:1580110501</t>
-  </si>
-  <si>
     <t>ironic_template_historical_fei_yang_hero_earth:Rise of the Warlords:3k_main_campaign_map:ironic_faction_fei_zhan:117890960:82398841</t>
   </si>
   <si>
@@ -1263,9 +1170,6 @@
     <t>ironic_template_historical_hua_ji_hero_wood:Rise of the Warlords:3k_main_campaign_map:3k_dlc05_faction_hua_xin:58990673:553366829</t>
   </si>
   <si>
-    <t>3k_main_template_generic_water_agent_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:ironic_faction_huang_clan:1957323055:1149383992</t>
-  </si>
-  <si>
     <t>ironic_template_historical_huang_chun_hero_earth:Rise of the Warlords:3k_main_campaign_map:ironic_faction_huang_clan:1957323055:1112485141</t>
   </si>
   <si>
@@ -1332,9 +1236,6 @@
     <t>ironic_template_historical_lai_min_hero_water:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_kong_zhou:2120137685:924907592</t>
   </si>
   <si>
-    <t>3k_main_template_generic_water_envoy_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_kong_zhou:2120137685:134068527</t>
-  </si>
-  <si>
     <t>ironic_template_historical_lai_xun_hero_water:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_gaoliang:1307761329:146098764</t>
   </si>
   <si>
@@ -1407,9 +1308,6 @@
     <t>ironic_template_historical_mohuba_hero_metal:Rise of the Warlords:3k_main_campaign_map:ironic_faction_xianbei_tuoba:350666268:1508115848</t>
   </si>
   <si>
-    <t>3k_main_template_generic_earth_general_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:ironic_faction_fei_zhan:117890960:1385499618</t>
-  </si>
-  <si>
     <t>ironic_template_historical_nangong_zixiao_hero_wood:Rise of the Warlords:3k_main_campaign_map:ironic_faction_fei_zhan:117890960:1935386783</t>
   </si>
   <si>
@@ -1431,9 +1329,6 @@
     <t>ironic_template_historical_niu_dan_ironic_hero_earth:Rise of the Warlords:3k_main_campaign_map:ironic_faction_hu_mao:2058050272:1033487834</t>
   </si>
   <si>
-    <t>3k_main_template_generic_water_governor_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:ironic_faction_hu_mao:2058050272:1353655460</t>
-  </si>
-  <si>
     <t>ironic_template_historical_pan_juan_hero_water:Rise of the Warlords:3k_main_campaign_map:3k_dlc07_faction_shanyue_rebels:135500010:482618902</t>
   </si>
   <si>
@@ -1446,9 +1341,6 @@
     <t>ironic_template_historical_pan_miao_hero_fire:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_shi_xie:2120137592:2002968736</t>
   </si>
   <si>
-    <t>3k_main_template_generic_metal_governor_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_shi_xie:2120137592:1322369264</t>
-  </si>
-  <si>
     <t>ironic_template_historical_pan_xin_hero_water:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_shi_xie:2120137592:1603182237</t>
   </si>
   <si>
@@ -1476,15 +1368,9 @@
     <t>ironic_template_historical_she_jian_ironic_hero_wood:Rise of the Warlords:3k_main_campaign_map:3k_dlc05_faction_zhu_fu:1342213358:899785243</t>
   </si>
   <si>
-    <t>3k_main_template_generic_water_governor_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_dlc05_faction_zhu_fu:1342213358:430156813</t>
-  </si>
-  <si>
     <t>ironic_template_historical_shen_dan_hero_earth:Rise of the Warlords:3k_main_campaign_map:ironic_faction_zhao_wei:144019251:1780918072</t>
   </si>
   <si>
-    <t>3k_main_template_generic_water_governor_legendary_m_hero:Rise of the Warlords:3k_main_campaign_map:ironic_faction_zhao_wei:144019251:406830639</t>
-  </si>
-  <si>
     <t>ironic_template_historical_shen_yi_hero_fire:Rise of the Warlords:3k_main_campaign_map:ironic_faction_zhao_wei:144019251:617645341</t>
   </si>
   <si>
@@ -1587,9 +1473,6 @@
     <t>ironic_template_historical_teng_dan_hero_water:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_liu_yao:2120137703:1188108037</t>
   </si>
   <si>
-    <t>3k_main_template_generic_metal_villager_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_liu_yao:2120137703:1712515251</t>
-  </si>
-  <si>
     <t>ironic_template_historical_teng_ling_hero_earth:Rise of the Warlords:3k_main_campaign_map:3k_dlc05_faction_hua_xin:58990673:1247191059</t>
   </si>
   <si>
@@ -1599,9 +1482,6 @@
     <t>ironic_template_historical_tong_jie_hero_metal:Rise of the Warlords:3k_main_campaign_map:ironic_faction_tong_zhi:1132820248:1014112115</t>
   </si>
   <si>
-    <t>3k_main_template_generic_earth_envoy_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:ironic_faction_tong_zhi:1132820248:452267851</t>
-  </si>
-  <si>
     <t>ironic_template_historical_tong_yang_hero_metal:Rise of the Warlords:3k_main_campaign_map:ironic_faction_tong_zhi:1132820248:1552014540</t>
   </si>
   <si>
@@ -1626,9 +1506,6 @@
     <t>ironic_template_historical_wei_duan_hero_wood:Rise of the Warlords:3k_main_campaign_map:ironic_faction_zhang_jin_border:1523321965:2065866984</t>
   </si>
   <si>
-    <t>3k_main_template_generic_water_agent_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:ironic_faction_zhang_jin_border:1523321965:737001179</t>
-  </si>
-  <si>
     <t>ironic_template_historical_wei_kang_hero_earth:Rise of the Warlords:3k_main_campaign_map:ironic_faction_zhang_jin_border:1523321965:1909782432</t>
   </si>
   <si>
@@ -1674,9 +1551,6 @@
     <t>ironic_template_historical_xie_jiong_hero_metal:Rise of the Warlords:3k_main_campaign_map:3k_dlc05_faction_sheng_xian:699677430:1674306258</t>
   </si>
   <si>
-    <t>3k_dlc05_template_generic_bandit_earth_agent_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_dlc05_faction_sheng_xian:699677430:2077891387</t>
-  </si>
-  <si>
     <t>ironic_template_historical_xie_mi_hero_water:Rise of the Warlords:3k_main_campaign_map:3k_dlc05_faction_sheng_xian:699677430:1606346993</t>
   </si>
   <si>
@@ -1770,9 +1644,6 @@
     <t>ironic_template_historical_zheng_bao_hero_wood:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_xindu:886438292:792558405</t>
   </si>
   <si>
-    <t>3k_main_template_generic_metal_villager_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_xindu:886438292:236918777</t>
-  </si>
-  <si>
     <t>ironic_template_historical_zheng_fei_hero_earth:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_xindu:886438292:184363703</t>
   </si>
   <si>
@@ -1851,9 +1722,6 @@
     <t>ironic_template_romance_zhang_gong_hero_wood:Rise of the Warlords:3k_main_campaign_map:ironic_faction_ma_ai:352366092:1846986318</t>
   </si>
   <si>
-    <t>3k_main_template_generic_wood_general_normal_m_hero:Rise of the Warlords:3k_main_campaign_map:ironic_faction_ma_ai:352366092:1504140597</t>
-  </si>
-  <si>
     <t>ironic_template_romance_zhang_jiu_hero_earth:Rise of the Warlords:3k_main_campaign_map:ironic_faction_ma_ai:352366092:1399411465</t>
   </si>
   <si>
@@ -1864,6 +1732,141 @@
   </si>
   <si>
     <t>relationship</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_liu_xun_father:Rise of the Warlords:3k_main_campaign_map:3k_dlc04_faction_liu_xun:776331693:218411280</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_zhou_xin_father:Rise of the Warlords:3k_main_campaign_map:ironic_faction_chen_wen:819340564:2010554031</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_sun_jian_father:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_sun_jian:2120137601:1276921292</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_bao_xin_father:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_liu_dai:2120137698:1128445103</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_gao_gan_father:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_yuan_shao:2120137610:380954160</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_gu_yong_father:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_wang_lang:2120137730:804233699</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_han_hao_father:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_wang_kuang:2120137726:1868961052</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_hua_xin_father:Rise of the Warlords:3k_main_campaign_map:3k_dlc05_faction_hua_xin:58990673:435257593</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_lady_liu_father:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_yuan_shao:2120137610:550647827</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_lai_gong_father:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_gaoliang:1307761329:609618247</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_li_shao_father:Rise of the Warlords:3k_main_campaign_map:ironic_faction_zhao_wei:144019251:2060784996</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_ma_su_father:Rise of the Warlords:3k_main_campaign_map:3k_dlc05_faction_zhu_fu:1342213358:1451278545</t>
+  </si>
+  <si>
+    <t>3k_main_template_historical_min_chun_hero_water:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_han_fu:2120137640:217117770</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_wuhuan_father:Rise of the Warlords:3k_main_campaign_map:ironic_faction_wuhuan_tribes:707621579:2031958910</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_sun_he_father:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_sun_jian:2120137601:103244821</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_wang_shi_father:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_jia_long:2120137675:388062174</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_wu_ju_father:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_yulin:520656444:1187108745</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_xin_ping_father:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_han_fu:2120137640:1023910455</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_yuan_huan_father:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_gaoliang:1307761329:1156194482</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_zhang_chao_father:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_zhang_chao:2120137745:175981188</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_zhang_su_father:Rise of the Warlords:3k_main_campaign_map:ironic_faction_zhao_wei:144019251:1618726467</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_zheng_tai_father:Rise of the Warlords:3k_main_campaign_map:3k_dlc05_faction_hua_xin:58990673:1568789254</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_qiulijiu_father:Rise of the Warlords:3k_main_campaign_map:ironic_faction_wuhuan_tribes:707621579:523284834</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_sun_he_father_father:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_sun_jian:2120137601:705719690</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_xianbei_father:Rise of the Warlords:3k_main_campaign_map:ironic_faction_xianbei_tuoba:350666268:871401394</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_xianbei_parent:Rise of the Warlords:3k_main_campaign_map:ironic_faction_xianbei_kuitou:88737056:260779459</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_yuan_ba_father:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_gaoliang:1307761329:1142876737</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_yuan_grandfather:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_gaoliang:1307761329:823346678</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_bei_jia_father:Rise of the Warlords:3k_main_campaign_map:ironic_faction_su_dai:1420379793:2054583210</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_suli_parent:Rise of the Warlords:3k_main_campaign_map:ironic_faction_xianbei_tuoba:350666268:1683828669</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_zhao_fan_father:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_cai_mao:2120137630:604155950</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_fei_xin_father:Rise of the Warlords:3k_main_campaign_map:ironic_faction_fei_zhan:117890960:1580110501</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_huang_ang_father:Rise of the Warlords:3k_main_campaign_map:ironic_faction_huang_clan:1957323055:1149383992</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_lai_min_father:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_kong_zhou:2120137685:134068527</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_nangong_father:Rise of the Warlords:3k_main_campaign_map:ironic_faction_fei_zhan:117890960:1385499618</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_niu_dan_father:Rise of the Warlords:3k_main_campaign_map:ironic_faction_hu_mao:2058050272:1353655460</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_pan_man_son:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_shi_xie:2120137592:1322369264</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_she_yuan_father:Rise of the Warlords:3k_main_campaign_map:3k_dlc05_faction_zhu_fu:1342213358:430156813</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_shen_dan_father:Rise of the Warlords:3k_main_campaign_map:ironic_faction_zhao_wei:144019251:406830639</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_teng_dan_father:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_liu_yao:2120137703:1712515251</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_tong_yin_father:Rise of the Warlords:3k_main_campaign_map:ironic_faction_tong_zhi:1132820248:452267851</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_wei_duan_father:Rise of the Warlords:3k_main_campaign_map:ironic_faction_zhang_jin_border:1523321965:737001179</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_xie_jiong_father:Rise of the Warlords:3k_main_campaign_map:3k_dlc05_faction_sheng_xian:699677430:2077891387</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_zheng_bao_father:Rise of the Warlords:3k_main_campaign_map:3k_main_faction_xindu:886438292:236918777</t>
+  </si>
+  <si>
+    <t>ironic_template_ancestral_zhang_gong_father:Rise of the Warlords:3k_main_campaign_map:ironic_faction_ma_ai:352366092:1504140597</t>
   </si>
 </sst>
 </file>
@@ -2181,10 +2184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C548"/>
+  <dimension ref="A1:C550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2194,13 +2197,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>610</v>
+        <v>566</v>
       </c>
       <c r="B1" t="s">
-        <v>611</v>
+        <v>567</v>
       </c>
       <c r="C1" t="s">
-        <v>612</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2285,7 +2288,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>569</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -2304,10 +2307,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -2315,10 +2318,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -2326,10 +2329,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -2337,10 +2340,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -2348,7 +2351,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -2359,10 +2362,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -2370,10 +2373,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
         <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2381,10 +2384,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>570</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -2392,10 +2395,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>570</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -2420,7 +2423,7 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2439,7 +2442,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -2447,21 +2450,21 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -2469,7 +2472,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -2480,10 +2483,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -2491,10 +2494,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
         <v>43</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -2502,10 +2505,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
         <v>45</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -2513,7 +2516,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
         <v>47</v>
@@ -2524,10 +2527,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
         <v>48</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -2535,10 +2538,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -2546,10 +2549,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -2557,10 +2560,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -2568,21 +2571,21 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -2590,10 +2593,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -2607,15 +2610,15 @@
         <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -2623,10 +2626,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
         <v>58</v>
-      </c>
-      <c r="B40" t="s">
-        <v>54</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -2634,10 +2637,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
         <v>59</v>
-      </c>
-      <c r="B41" t="s">
-        <v>60</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -2645,10 +2648,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -2656,10 +2659,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -2667,10 +2670,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -2678,10 +2681,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -2689,10 +2692,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -2700,10 +2703,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -2711,10 +2714,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -2722,10 +2725,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -2733,10 +2736,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -2744,10 +2747,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>571</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -2755,10 +2758,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -2766,10 +2769,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
         <v>74</v>
-      </c>
-      <c r="B53" t="s">
-        <v>75</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -2777,10 +2780,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -2788,10 +2791,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -2799,10 +2802,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -2810,10 +2813,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
@@ -2821,10 +2824,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -2832,21 +2835,21 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -2854,10 +2857,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
@@ -2865,21 +2868,21 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
@@ -2887,10 +2890,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
@@ -2898,10 +2901,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
@@ -2909,10 +2912,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -2920,10 +2923,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
@@ -2931,10 +2934,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -2942,10 +2945,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
         <v>94</v>
-      </c>
-      <c r="B69" t="s">
-        <v>96</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -2953,21 +2956,21 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C70" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -2975,10 +2978,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B72" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -2986,21 +2989,21 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -3008,10 +3011,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -3019,10 +3022,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -3030,10 +3033,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -3041,10 +3044,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -3052,10 +3055,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
@@ -3063,10 +3066,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B80" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -3074,10 +3077,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
@@ -3085,10 +3088,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
@@ -3096,10 +3099,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
@@ -3107,10 +3110,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -3118,10 +3121,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B85" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
@@ -3129,10 +3132,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -3140,10 +3143,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B87" t="s">
-        <v>118</v>
+        <v>572</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -3151,10 +3154,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B88" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
@@ -3162,21 +3165,21 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B89" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C89" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B90" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -3184,10 +3187,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B91" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
@@ -3195,21 +3198,21 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B92" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C92" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B93" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
@@ -3217,10 +3220,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B94" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -3228,10 +3231,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B95" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -3239,32 +3242,32 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B96" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C96" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B97" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B98" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -3272,10 +3275,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B99" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -3283,21 +3286,21 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B100" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B101" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
@@ -3305,10 +3308,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B102" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C102" t="s">
         <v>2</v>
@@ -3316,10 +3319,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="C103" t="s">
         <v>2</v>
@@ -3327,21 +3330,21 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B104" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
@@ -3349,10 +3352,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B106" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="C106" t="s">
         <v>2</v>
@@ -3360,10 +3363,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B107" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C107" t="s">
         <v>2</v>
@@ -3371,10 +3374,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B108" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C108" t="s">
         <v>2</v>
@@ -3382,10 +3385,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C109" t="s">
         <v>2</v>
@@ -3393,10 +3396,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B110" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
@@ -3404,10 +3407,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="B111" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
@@ -3415,32 +3418,32 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="B112" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C112" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B113" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="C113" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B114" t="s">
-        <v>138</v>
+        <v>573</v>
       </c>
       <c r="C114" t="s">
         <v>2</v>
@@ -3448,10 +3451,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B115" t="s">
-        <v>138</v>
+        <v>573</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
@@ -3459,21 +3462,21 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B116" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C116" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B117" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C117" t="s">
         <v>2</v>
@@ -3481,10 +3484,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B118" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
@@ -3492,10 +3495,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="B119" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
@@ -3503,32 +3506,32 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="B120" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B121" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="C122" t="s">
         <v>2</v>
@@ -3536,10 +3539,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C123" t="s">
         <v>2</v>
@@ -3547,21 +3550,21 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B124" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B125" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
@@ -3569,21 +3572,21 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B126" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C126" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B127" t="s">
-        <v>157</v>
+        <v>574</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
@@ -3591,21 +3594,21 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="B128" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="C128" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B129" t="s">
-        <v>157</v>
+        <v>575</v>
       </c>
       <c r="C129" t="s">
         <v>2</v>
@@ -3613,21 +3616,21 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="B130" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="C130" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B131" t="s">
-        <v>165</v>
+        <v>576</v>
       </c>
       <c r="C131" t="s">
         <v>2</v>
@@ -3635,10 +3638,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B132" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="C132" t="s">
         <v>2</v>
@@ -3646,21 +3649,21 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="B133" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C133" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B134" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C134" t="s">
         <v>13</v>
@@ -3668,10 +3671,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B135" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C135" t="s">
         <v>2</v>
@@ -3679,10 +3682,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="B136" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="C136" t="s">
         <v>13</v>
@@ -3690,10 +3693,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B137" t="s">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="C137" t="s">
         <v>2</v>
@@ -3701,21 +3704,21 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="B138" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B139" t="s">
-        <v>173</v>
+        <v>577</v>
       </c>
       <c r="C139" t="s">
         <v>2</v>
@@ -3723,10 +3726,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B140" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="C140" t="s">
         <v>2</v>
@@ -3734,21 +3737,21 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="B141" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C141" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B142" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C142" t="s">
         <v>13</v>
@@ -3756,10 +3759,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B143" t="s">
-        <v>179</v>
+        <v>578</v>
       </c>
       <c r="C143" t="s">
         <v>2</v>
@@ -3767,21 +3770,21 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B144" t="s">
-        <v>181</v>
+        <v>579</v>
       </c>
       <c r="C144" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B145" t="s">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="C145" t="s">
         <v>2</v>
@@ -3789,10 +3792,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B146" t="s">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
@@ -3800,10 +3803,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B147" t="s">
-        <v>126</v>
+        <v>579</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -3811,10 +3814,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B148" t="s">
-        <v>187</v>
+        <v>579</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
@@ -3822,10 +3825,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B149" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
@@ -3833,21 +3836,21 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B150" t="s">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="C150" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="B151" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C151" t="s">
         <v>2</v>
@@ -3855,21 +3858,21 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="B152" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="C152" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B153" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C153" t="s">
         <v>2</v>
@@ -3877,10 +3880,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B154" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="C154" t="s">
         <v>2</v>
@@ -3888,21 +3891,21 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B155" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C155" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B156" t="s">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="C156" t="s">
         <v>2</v>
@@ -3910,21 +3913,21 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="B157" t="s">
-        <v>200</v>
+        <v>88</v>
       </c>
       <c r="C157" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>201</v>
+        <v>89</v>
       </c>
       <c r="B158" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="C158" t="s">
         <v>2</v>
@@ -3932,10 +3935,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="B159" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -3943,21 +3946,21 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="B160" t="s">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="C160" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B161" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
@@ -3965,10 +3968,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B162" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C162" t="s">
         <v>2</v>
@@ -3976,21 +3979,21 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B163" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C163" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B164" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C164" t="s">
         <v>2</v>
@@ -3998,21 +4001,21 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="B165" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C165" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="B166" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="C166" t="s">
         <v>2</v>
@@ -4020,10 +4023,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B167" t="s">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c r="C167" t="s">
         <v>2</v>
@@ -4031,10 +4034,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B168" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C168" t="s">
         <v>2</v>
@@ -4042,32 +4045,32 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="B169" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="C169" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="B170" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="C170" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>213</v>
+        <v>94</v>
       </c>
       <c r="B171" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="C171" t="s">
         <v>2</v>
@@ -4075,10 +4078,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="B172" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
@@ -4086,21 +4089,21 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="B173" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="C173" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B174" t="s">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="C174" t="s">
         <v>2</v>
@@ -4108,10 +4111,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>217</v>
+        <v>56</v>
       </c>
       <c r="B175" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="C175" t="s">
         <v>2</v>
@@ -4119,54 +4122,54 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>217</v>
+        <v>56</v>
       </c>
       <c r="B176" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="C176" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B177" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C177" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="B178" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C178" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="B179" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C179" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B180" t="s">
-        <v>218</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>2</v>
@@ -4174,21 +4177,21 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="C181" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B182" t="s">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c r="C182" t="s">
         <v>2</v>
@@ -4196,10 +4199,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>62</v>
+        <v>207</v>
       </c>
       <c r="B183" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C183" t="s">
         <v>2</v>
@@ -4207,32 +4210,32 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="B184" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C184" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="B185" t="s">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="C185" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B186" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="C186" t="s">
         <v>2</v>
@@ -4240,21 +4243,21 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B187" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C187" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>215</v>
       </c>
       <c r="C188" t="s">
         <v>2</v>
@@ -4262,10 +4265,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="B189" t="s">
-        <v>19</v>
+        <v>580</v>
       </c>
       <c r="C189" t="s">
         <v>2</v>
@@ -4273,10 +4276,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B190" t="s">
-        <v>16</v>
+        <v>580</v>
       </c>
       <c r="C190" t="s">
         <v>2</v>
@@ -4284,10 +4287,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B191" t="s">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="C191" t="s">
         <v>2</v>
@@ -4295,32 +4298,32 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B192" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C192" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B193" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="C193" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B194" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C194" t="s">
         <v>2</v>
@@ -4328,10 +4331,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B195" t="s">
-        <v>233</v>
+        <v>10</v>
       </c>
       <c r="C195" t="s">
         <v>2</v>
@@ -4339,10 +4342,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>234</v>
+        <v>581</v>
       </c>
       <c r="B196" t="s">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="C196" t="s">
         <v>2</v>
@@ -4350,10 +4353,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>236</v>
+        <v>581</v>
       </c>
       <c r="B197" t="s">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="C197" t="s">
         <v>2</v>
@@ -4361,21 +4364,21 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B198" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C198" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B199" t="s">
-        <v>239</v>
+        <v>582</v>
       </c>
       <c r="C199" t="s">
         <v>2</v>
@@ -4383,43 +4386,43 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B200" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C200" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="B201" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C201" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B202" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C202" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B203" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C203" t="s">
         <v>2</v>
@@ -4427,21 +4430,21 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="B204" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C204" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B205" t="s">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="C205" t="s">
         <v>2</v>
@@ -4449,43 +4452,43 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B206" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C206" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B207" t="s">
-        <v>249</v>
+        <v>169</v>
       </c>
       <c r="C207" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B208" t="s">
-        <v>251</v>
+        <v>170</v>
       </c>
       <c r="C208" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B209" t="s">
-        <v>60</v>
+        <v>583</v>
       </c>
       <c r="C209" t="s">
         <v>2</v>
@@ -4493,21 +4496,21 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="B210" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="C210" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="B211" t="s">
-        <v>253</v>
+        <v>70</v>
       </c>
       <c r="C211" t="s">
         <v>2</v>
@@ -4515,21 +4518,21 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B212" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="C212" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="B213" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C213" t="s">
         <v>2</v>
@@ -4537,10 +4540,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="B214" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C214" t="s">
         <v>2</v>
@@ -4548,10 +4551,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="B215" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="C215" t="s">
         <v>2</v>
@@ -4559,32 +4562,32 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="B216" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="C216" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="B217" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="C217" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B218" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C218" t="s">
         <v>2</v>
@@ -4592,10 +4595,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B219" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="C219" t="s">
         <v>2</v>
@@ -4603,10 +4606,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B220" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="C220" t="s">
         <v>2</v>
@@ -4614,10 +4617,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B221" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="C221" t="s">
         <v>2</v>
@@ -4625,10 +4628,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B222" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C222" t="s">
         <v>2</v>
@@ -4636,21 +4639,21 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B223" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C223" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B224" t="s">
-        <v>265</v>
+        <v>584</v>
       </c>
       <c r="C224" t="s">
         <v>2</v>
@@ -4658,32 +4661,32 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>266</v>
+        <v>97</v>
       </c>
       <c r="B225" t="s">
-        <v>264</v>
+        <v>98</v>
       </c>
       <c r="C225" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>267</v>
+        <v>111</v>
       </c>
       <c r="B226" t="s">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="C226" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B227" t="s">
-        <v>264</v>
+        <v>584</v>
       </c>
       <c r="C227" t="s">
         <v>2</v>
@@ -4691,10 +4694,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B228" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C228" t="s">
         <v>2</v>
@@ -4702,21 +4705,21 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B229" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C229" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B230" t="s">
-        <v>273</v>
+        <v>585</v>
       </c>
       <c r="C230" t="s">
         <v>2</v>
@@ -4724,10 +4727,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>104</v>
+        <v>256</v>
       </c>
       <c r="B231" t="s">
-        <v>105</v>
+        <v>257</v>
       </c>
       <c r="C231" t="s">
         <v>13</v>
@@ -4735,21 +4738,21 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>118</v>
+        <v>258</v>
       </c>
       <c r="B232" t="s">
-        <v>117</v>
+        <v>259</v>
       </c>
       <c r="C232" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B233" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C233" t="s">
         <v>2</v>
@@ -4757,10 +4760,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B234" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C234" t="s">
         <v>2</v>
@@ -4768,21 +4771,21 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B235" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C235" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B236" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C236" t="s">
         <v>2</v>
@@ -4790,21 +4793,21 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B237" t="s">
-        <v>280</v>
+        <v>586</v>
       </c>
       <c r="C237" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B238" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C238" t="s">
         <v>2</v>
@@ -4812,10 +4815,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B239" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C239" t="s">
         <v>2</v>
@@ -4823,10 +4826,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B240" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C240" t="s">
         <v>2</v>
@@ -4834,21 +4837,21 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B241" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C241" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B242" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C242" t="s">
         <v>2</v>
@@ -4856,10 +4859,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B243" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="C243" t="s">
         <v>2</v>
@@ -4867,10 +4870,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B244" t="s">
-        <v>292</v>
+        <v>24</v>
       </c>
       <c r="C244" t="s">
         <v>2</v>
@@ -4878,10 +4881,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="B245" t="s">
-        <v>294</v>
+        <v>23</v>
       </c>
       <c r="C245" t="s">
         <v>2</v>
@@ -4889,32 +4892,32 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="B246" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C246" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B247" t="s">
-        <v>297</v>
+        <v>587</v>
       </c>
       <c r="C247" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="B248" t="s">
-        <v>296</v>
+        <v>167</v>
       </c>
       <c r="C248" t="s">
         <v>2</v>
@@ -4922,10 +4925,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="B249" t="s">
-        <v>24</v>
+        <v>282</v>
       </c>
       <c r="C249" t="s">
         <v>2</v>
@@ -4933,10 +4936,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="B250" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C250" t="s">
         <v>2</v>
@@ -4944,21 +4947,21 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B251" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="C251" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="B252" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="C252" t="s">
         <v>13</v>
@@ -4966,10 +4969,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="B253" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="C253" t="s">
         <v>2</v>
@@ -4977,10 +4980,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="B254" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="C254" t="s">
         <v>2</v>
@@ -4988,10 +4991,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="B255" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C255" t="s">
         <v>2</v>
@@ -4999,43 +5002,43 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="B256" t="s">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="C256" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="B257" t="s">
-        <v>185</v>
+        <v>284</v>
       </c>
       <c r="C257" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="B258" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="C258" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="B259" t="s">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="C259" t="s">
         <v>2</v>
@@ -5043,10 +5046,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="B260" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C260" t="s">
         <v>2</v>
@@ -5054,21 +5057,21 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>310</v>
+        <v>102</v>
       </c>
       <c r="B261" t="s">
-        <v>306</v>
+        <v>103</v>
       </c>
       <c r="C261" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="B262" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="C262" t="s">
         <v>13</v>
@@ -5076,10 +5079,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="B263" t="s">
-        <v>308</v>
+        <v>588</v>
       </c>
       <c r="C263" t="s">
         <v>2</v>
@@ -5087,10 +5090,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="B264" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C264" t="s">
         <v>2</v>
@@ -5098,10 +5101,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="B265" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C265" t="s">
         <v>2</v>
@@ -5109,10 +5112,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="B266" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="C266" t="s">
         <v>2</v>
@@ -5120,21 +5123,21 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="B267" t="s">
-        <v>110</v>
+        <v>297</v>
       </c>
       <c r="C267" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="B268" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="C268" t="s">
         <v>13</v>
@@ -5142,10 +5145,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="B269" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C269" t="s">
         <v>2</v>
@@ -5153,10 +5156,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B270" t="s">
-        <v>321</v>
+        <v>588</v>
       </c>
       <c r="C270" t="s">
         <v>2</v>
@@ -5164,10 +5167,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="B271" t="s">
-        <v>322</v>
+        <v>589</v>
       </c>
       <c r="C271" t="s">
         <v>2</v>
@@ -5175,10 +5178,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="B272" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="C272" t="s">
         <v>2</v>
@@ -5186,21 +5189,21 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="B273" t="s">
-        <v>322</v>
+        <v>40</v>
       </c>
       <c r="C273" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>322</v>
+        <v>106</v>
       </c>
       <c r="B274" t="s">
-        <v>321</v>
+        <v>105</v>
       </c>
       <c r="C274" t="s">
         <v>13</v>
@@ -5208,10 +5211,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="B275" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="C275" t="s">
         <v>2</v>
@@ -5219,21 +5222,21 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="B276" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C276" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="B277" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C277" t="s">
         <v>2</v>
@@ -5241,10 +5244,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="B278" t="s">
-        <v>329</v>
+        <v>590</v>
       </c>
       <c r="C278" t="s">
         <v>2</v>
@@ -5252,32 +5255,32 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>47</v>
+        <v>310</v>
       </c>
       <c r="B279" t="s">
-        <v>46</v>
+        <v>311</v>
       </c>
       <c r="C279" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>113</v>
+        <v>312</v>
       </c>
       <c r="B280" t="s">
-        <v>112</v>
+        <v>570</v>
       </c>
       <c r="C280" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="B281" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C281" t="s">
         <v>2</v>
@@ -5285,10 +5288,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="B282" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="C282" t="s">
         <v>13</v>
@@ -5296,10 +5299,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="B283" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="C283" t="s">
         <v>2</v>
@@ -5307,10 +5310,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="B284" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="C284" t="s">
         <v>2</v>
@@ -5318,10 +5321,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B285" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="C285" t="s">
         <v>2</v>
@@ -5329,10 +5332,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="B286" t="s">
-        <v>27</v>
+        <v>322</v>
       </c>
       <c r="C286" t="s">
         <v>2</v>
@@ -5340,10 +5343,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="B287" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="C287" t="s">
         <v>2</v>
@@ -5351,32 +5354,32 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B288" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C288" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="B289" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="C289" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="B290" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="C290" t="s">
         <v>2</v>
@@ -5384,10 +5387,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>346</v>
+        <v>215</v>
       </c>
       <c r="B291" t="s">
-        <v>347</v>
+        <v>218</v>
       </c>
       <c r="C291" t="s">
         <v>2</v>
@@ -5395,10 +5398,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="B292" t="s">
-        <v>349</v>
+        <v>137</v>
       </c>
       <c r="C292" t="s">
         <v>2</v>
@@ -5406,10 +5409,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>350</v>
+        <v>284</v>
       </c>
       <c r="B293" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C293" t="s">
         <v>2</v>
@@ -5417,10 +5420,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="B294" t="s">
-        <v>351</v>
+        <v>203</v>
       </c>
       <c r="C294" t="s">
         <v>2</v>
@@ -5428,21 +5431,21 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="B295" t="s">
-        <v>354</v>
+        <v>204</v>
       </c>
       <c r="C295" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="B296" t="s">
-        <v>355</v>
+        <v>212</v>
       </c>
       <c r="C296" t="s">
         <v>2</v>
@@ -5450,10 +5453,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>235</v>
+        <v>332</v>
       </c>
       <c r="B297" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="C297" t="s">
         <v>2</v>
@@ -5461,10 +5464,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>356</v>
+        <v>169</v>
       </c>
       <c r="B298" t="s">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="C298" t="s">
         <v>2</v>
@@ -5472,10 +5475,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="B299" t="s">
-        <v>357</v>
+        <v>284</v>
       </c>
       <c r="C299" t="s">
         <v>2</v>
@@ -5483,10 +5486,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="B300" t="s">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="C300" t="s">
         <v>2</v>
@@ -5494,10 +5497,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="B301" t="s">
-        <v>224</v>
+        <v>63</v>
       </c>
       <c r="C301" t="s">
         <v>2</v>
@@ -5505,10 +5508,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>359</v>
+        <v>573</v>
       </c>
       <c r="B302" t="s">
-        <v>232</v>
+        <v>577</v>
       </c>
       <c r="C302" t="s">
         <v>2</v>
@@ -5516,10 +5519,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>359</v>
+        <v>194</v>
       </c>
       <c r="B303" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="C303" t="s">
         <v>2</v>
@@ -5527,10 +5530,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>187</v>
+        <v>305</v>
       </c>
       <c r="B304" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="C304" t="s">
         <v>2</v>
@@ -5538,10 +5541,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>360</v>
+        <v>591</v>
       </c>
       <c r="B305" t="s">
-        <v>308</v>
+        <v>582</v>
       </c>
       <c r="C305" t="s">
         <v>2</v>
@@ -5549,10 +5552,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>360</v>
+        <v>583</v>
       </c>
       <c r="B306" t="s">
-        <v>307</v>
+        <v>592</v>
       </c>
       <c r="C306" t="s">
         <v>2</v>
@@ -5560,10 +5563,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>361</v>
+        <v>592</v>
       </c>
       <c r="B307" t="s">
-        <v>69</v>
+        <v>571</v>
       </c>
       <c r="C307" t="s">
         <v>2</v>
@@ -5571,10 +5574,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="B308" t="s">
-        <v>202</v>
+        <v>335</v>
       </c>
       <c r="C308" t="s">
         <v>2</v>
@@ -5582,10 +5585,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>331</v>
+        <v>593</v>
       </c>
       <c r="B309" t="s">
-        <v>202</v>
+        <v>28</v>
       </c>
       <c r="C309" t="s">
         <v>2</v>
@@ -5593,10 +5596,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>282</v>
+        <v>594</v>
       </c>
       <c r="B310" t="s">
-        <v>362</v>
+        <v>27</v>
       </c>
       <c r="C310" t="s">
         <v>2</v>
@@ -5604,10 +5607,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="B311" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C311" t="s">
         <v>2</v>
@@ -5615,10 +5618,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="B312" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C312" t="s">
         <v>2</v>
@@ -5626,10 +5629,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>314</v>
+        <v>595</v>
       </c>
       <c r="B313" t="s">
-        <v>79</v>
+        <v>596</v>
       </c>
       <c r="C313" t="s">
         <v>2</v>
@@ -5637,10 +5640,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>351</v>
+        <v>587</v>
       </c>
       <c r="B314" t="s">
-        <v>355</v>
+        <v>596</v>
       </c>
       <c r="C314" t="s">
         <v>2</v>
@@ -5648,10 +5651,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>363</v>
+        <v>290</v>
       </c>
       <c r="B315" t="s">
-        <v>364</v>
+        <v>72</v>
       </c>
       <c r="C315" t="s">
         <v>2</v>
@@ -5659,10 +5662,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="B316" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="C316" t="s">
         <v>2</v>
@@ -5670,10 +5673,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="B317" t="s">
-        <v>128</v>
+        <v>337</v>
       </c>
       <c r="C317" t="s">
         <v>2</v>
@@ -5681,10 +5684,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="B318" t="s">
-        <v>128</v>
+        <v>337</v>
       </c>
       <c r="C318" t="s">
         <v>2</v>
@@ -5692,10 +5695,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="B319" t="s">
-        <v>368</v>
+        <v>572</v>
       </c>
       <c r="C319" t="s">
         <v>2</v>
@@ -5703,10 +5706,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="B320" t="s">
-        <v>370</v>
+        <v>572</v>
       </c>
       <c r="C320" t="s">
         <v>2</v>
@@ -5714,21 +5717,21 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="B321" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="C321" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="B322" t="s">
-        <v>370</v>
+        <v>597</v>
       </c>
       <c r="C322" t="s">
         <v>2</v>
@@ -5736,21 +5739,21 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="B323" t="s">
-        <v>130</v>
+        <v>343</v>
       </c>
       <c r="C323" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="B324" t="s">
-        <v>130</v>
+        <v>597</v>
       </c>
       <c r="C324" t="s">
         <v>2</v>
@@ -5758,10 +5761,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="B325" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="C325" t="s">
         <v>2</v>
@@ -5769,10 +5772,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="B326" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="C326" t="s">
         <v>2</v>
@@ -5780,10 +5783,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>206</v>
+        <v>346</v>
       </c>
       <c r="B327" t="s">
-        <v>135</v>
+        <v>594</v>
       </c>
       <c r="C327" t="s">
         <v>2</v>
@@ -5791,10 +5794,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="B328" t="s">
-        <v>361</v>
+        <v>62</v>
       </c>
       <c r="C328" t="s">
         <v>2</v>
@@ -5802,10 +5805,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>377</v>
+        <v>186</v>
       </c>
       <c r="B329" t="s">
-        <v>361</v>
+        <v>120</v>
       </c>
       <c r="C329" t="s">
         <v>2</v>
@@ -5813,10 +5816,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="B330" t="s">
-        <v>3</v>
+        <v>334</v>
       </c>
       <c r="C330" t="s">
         <v>2</v>
@@ -5824,10 +5827,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="B331" t="s">
-        <v>138</v>
+        <v>334</v>
       </c>
       <c r="C331" t="s">
         <v>2</v>
@@ -5835,10 +5838,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="B332" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C332" t="s">
         <v>2</v>
@@ -5846,10 +5849,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1</v>
+        <v>351</v>
       </c>
       <c r="B333" t="s">
-        <v>381</v>
+        <v>123</v>
       </c>
       <c r="C333" t="s">
         <v>2</v>
@@ -5857,10 +5860,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="B334" t="s">
-        <v>381</v>
+        <v>30</v>
       </c>
       <c r="C334" t="s">
         <v>2</v>
@@ -5868,10 +5871,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>382</v>
+        <v>1</v>
       </c>
       <c r="B335" t="s">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="C335" t="s">
         <v>2</v>
@@ -5879,10 +5882,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>383</v>
+        <v>30</v>
       </c>
       <c r="B336" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="C336" t="s">
         <v>2</v>
@@ -5890,10 +5893,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="B337" t="s">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="C337" t="s">
         <v>2</v>
@@ -5901,10 +5904,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="B338" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="C338" t="s">
         <v>2</v>
@@ -5912,10 +5915,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="B339" t="s">
-        <v>390</v>
+        <v>598</v>
       </c>
       <c r="C339" t="s">
         <v>2</v>
@@ -5923,10 +5926,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="B340" t="s">
-        <v>392</v>
+        <v>599</v>
       </c>
       <c r="C340" t="s">
         <v>2</v>
@@ -5934,10 +5937,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="B341" t="s">
-        <v>390</v>
+        <v>600</v>
       </c>
       <c r="C341" t="s">
         <v>2</v>
@@ -5945,10 +5948,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="B342" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="C342" t="s">
         <v>2</v>
@@ -5956,21 +5959,21 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="B343" t="s">
-        <v>394</v>
+        <v>600</v>
       </c>
       <c r="C343" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="B344" t="s">
-        <v>31</v>
+        <v>600</v>
       </c>
       <c r="C344" t="s">
         <v>2</v>
@@ -5978,10 +5981,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="B345" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="C345" t="s">
         <v>13</v>
@@ -5989,10 +5992,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="B346" t="s">
-        <v>69</v>
+        <v>594</v>
       </c>
       <c r="C346" t="s">
         <v>2</v>
@@ -6000,10 +6003,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="B347" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="C347" t="s">
         <v>13</v>
@@ -6011,43 +6014,43 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="B348" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="C348" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="B349" t="s">
-        <v>68</v>
+        <v>368</v>
       </c>
       <c r="C349" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>160</v>
+        <v>369</v>
       </c>
       <c r="B350" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C350" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="B351" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="C351" t="s">
         <v>2</v>
@@ -6055,10 +6058,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>402</v>
+        <v>145</v>
       </c>
       <c r="B352" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C352" t="s">
         <v>2</v>
@@ -6066,10 +6069,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="B353" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="C353" t="s">
         <v>2</v>
@@ -6077,10 +6080,10 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B354" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="C354" t="s">
         <v>2</v>
@@ -6088,10 +6091,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="B355" t="s">
-        <v>171</v>
+        <v>574</v>
       </c>
       <c r="C355" t="s">
         <v>2</v>
@@ -6099,21 +6102,21 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="B356" t="s">
-        <v>407</v>
+        <v>153</v>
       </c>
       <c r="C356" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="B357" t="s">
-        <v>32</v>
+        <v>575</v>
       </c>
       <c r="C357" t="s">
         <v>2</v>
@@ -6121,21 +6124,21 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="B358" t="s">
-        <v>37</v>
+        <v>376</v>
       </c>
       <c r="C358" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="B359" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C359" t="s">
         <v>2</v>
@@ -6143,10 +6146,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="B360" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="C360" t="s">
         <v>2</v>
@@ -6154,10 +6157,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="B361" t="s">
-        <v>412</v>
+        <v>31</v>
       </c>
       <c r="C361" t="s">
         <v>2</v>
@@ -6165,10 +6168,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="B362" t="s">
-        <v>412</v>
+        <v>576</v>
       </c>
       <c r="C362" t="s">
         <v>2</v>
@@ -6176,10 +6179,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>415</v>
+        <v>601</v>
       </c>
       <c r="C363" t="s">
         <v>2</v>
@@ -6187,10 +6190,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="B364" t="s">
-        <v>417</v>
+        <v>601</v>
       </c>
       <c r="C364" t="s">
         <v>2</v>
@@ -6198,10 +6201,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="B365" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="C365" t="s">
         <v>2</v>
@@ -6209,10 +6212,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="B366" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C366" t="s">
         <v>2</v>
@@ -6220,10 +6223,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="B367" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="C367" t="s">
         <v>2</v>
@@ -6231,10 +6234,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="B368" t="s">
-        <v>421</v>
+        <v>366</v>
       </c>
       <c r="C368" t="s">
         <v>2</v>
@@ -6242,21 +6245,21 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B369" t="s">
-        <v>423</v>
+        <v>601</v>
       </c>
       <c r="C369" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="B370" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="C370" t="s">
         <v>2</v>
@@ -6264,21 +6267,21 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="B371" t="s">
-        <v>316</v>
+        <v>391</v>
       </c>
       <c r="C371" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="B372" t="s">
-        <v>176</v>
+        <v>389</v>
       </c>
       <c r="C372" t="s">
         <v>2</v>
@@ -6286,10 +6289,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="B373" t="s">
-        <v>427</v>
+        <v>292</v>
       </c>
       <c r="C373" t="s">
         <v>2</v>
@@ -6297,21 +6300,21 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="B374" t="s">
-        <v>429</v>
+        <v>158</v>
       </c>
       <c r="C374" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="B375" t="s">
-        <v>31</v>
+        <v>395</v>
       </c>
       <c r="C375" t="s">
         <v>2</v>
@@ -6319,10 +6322,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="B376" t="s">
-        <v>67</v>
+        <v>397</v>
       </c>
       <c r="C376" t="s">
         <v>13</v>
@@ -6330,10 +6333,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="B377" t="s">
-        <v>282</v>
+        <v>594</v>
       </c>
       <c r="C377" t="s">
         <v>2</v>
@@ -6341,21 +6344,21 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="B378" t="s">
-        <v>285</v>
+        <v>61</v>
       </c>
       <c r="C378" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="B379" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="C379" t="s">
         <v>2</v>
@@ -6363,10 +6366,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="B380" t="s">
-        <v>435</v>
+        <v>262</v>
       </c>
       <c r="C380" t="s">
         <v>2</v>
@@ -6374,10 +6377,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="B381" t="s">
-        <v>435</v>
+        <v>578</v>
       </c>
       <c r="C381" t="s">
         <v>2</v>
@@ -6385,21 +6388,21 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="B382" t="s">
-        <v>417</v>
+        <v>602</v>
       </c>
       <c r="C382" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="B383" t="s">
-        <v>189</v>
+        <v>602</v>
       </c>
       <c r="C383" t="s">
         <v>2</v>
@@ -6407,21 +6410,21 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="B384" t="s">
-        <v>191</v>
+        <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="B385" t="s">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="C385" t="s">
         <v>2</v>
@@ -6429,10 +6432,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="B386" t="s">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="C386" t="s">
         <v>2</v>
@@ -6440,10 +6443,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="B387" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="C387" t="s">
         <v>2</v>
@@ -6451,10 +6454,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="B388" t="s">
-        <v>11</v>
+        <v>407</v>
       </c>
       <c r="C388" t="s">
         <v>2</v>
@@ -6462,10 +6465,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="B389" t="s">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="C389" t="s">
         <v>2</v>
@@ -6473,10 +6476,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="B390" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C390" t="s">
         <v>2</v>
@@ -6484,10 +6487,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="B391" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="C391" t="s">
         <v>2</v>
@@ -6495,10 +6498,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="B392" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C392" t="s">
         <v>2</v>
@@ -6506,10 +6509,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="B393" t="s">
-        <v>62</v>
+        <v>194</v>
       </c>
       <c r="C393" t="s">
         <v>2</v>
@@ -6517,10 +6520,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="B394" t="s">
-        <v>445</v>
+        <v>569</v>
       </c>
       <c r="C394" t="s">
         <v>2</v>
@@ -6528,10 +6531,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="B395" t="s">
-        <v>449</v>
+        <v>56</v>
       </c>
       <c r="C395" t="s">
         <v>2</v>
@@ -6539,10 +6542,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="B396" t="s">
-        <v>14</v>
+        <v>412</v>
       </c>
       <c r="C396" t="s">
         <v>2</v>
@@ -6550,10 +6553,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="B397" t="s">
-        <v>98</v>
+        <v>416</v>
       </c>
       <c r="C397" t="s">
         <v>2</v>
@@ -6561,10 +6564,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="B398" t="s">
-        <v>15</v>
+        <v>569</v>
       </c>
       <c r="C398" t="s">
         <v>2</v>
@@ -6572,10 +6575,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="B399" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C399" t="s">
         <v>2</v>
@@ -6583,10 +6586,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="B400" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C400" t="s">
         <v>2</v>
@@ -6594,10 +6597,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="B401" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C401" t="s">
         <v>2</v>
@@ -6605,21 +6608,21 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="B402" t="s">
-        <v>168</v>
+        <v>8</v>
       </c>
       <c r="C402" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="B403" t="s">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="C403" t="s">
         <v>2</v>
@@ -6627,10 +6630,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="B404" t="s">
-        <v>458</v>
+        <v>153</v>
       </c>
       <c r="C404" t="s">
         <v>13</v>
@@ -6638,10 +6641,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="B405" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="C405" t="s">
         <v>2</v>
@@ -6649,21 +6652,21 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="B406" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="C406" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
       <c r="B407" t="s">
-        <v>460</v>
+        <v>593</v>
       </c>
       <c r="C407" t="s">
         <v>2</v>
@@ -6671,10 +6674,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>462</v>
+        <v>363</v>
       </c>
       <c r="B408" t="s">
-        <v>463</v>
+        <v>603</v>
       </c>
       <c r="C408" t="s">
         <v>2</v>
@@ -6682,10 +6685,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="B409" t="s">
-        <v>463</v>
+        <v>603</v>
       </c>
       <c r="C409" t="s">
         <v>2</v>
@@ -6693,10 +6696,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="B410" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
       <c r="C410" t="s">
         <v>2</v>
@@ -6704,21 +6707,21 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="B411" t="s">
-        <v>466</v>
+        <v>429</v>
       </c>
       <c r="C411" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="B412" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="C412" t="s">
         <v>2</v>
@@ -6726,21 +6729,21 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>38</v>
+        <v>429</v>
       </c>
       <c r="B413" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="C413" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="B414" t="s">
-        <v>44</v>
+        <v>604</v>
       </c>
       <c r="C414" t="s">
         <v>2</v>
@@ -6748,10 +6751,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>470</v>
+        <v>32</v>
       </c>
       <c r="B415" t="s">
-        <v>44</v>
+        <v>604</v>
       </c>
       <c r="C415" t="s">
         <v>2</v>
@@ -6759,10 +6762,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>471</v>
+        <v>434</v>
       </c>
       <c r="B416" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C416" t="s">
         <v>2</v>
@@ -6770,10 +6773,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>472</v>
+        <v>435</v>
       </c>
       <c r="B417" t="s">
-        <v>473</v>
+        <v>38</v>
       </c>
       <c r="C417" t="s">
         <v>2</v>
@@ -6781,10 +6784,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="B418" t="s">
-        <v>473</v>
+        <v>38</v>
       </c>
       <c r="C418" t="s">
         <v>2</v>
@@ -6792,10 +6795,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
       <c r="B419" t="s">
-        <v>476</v>
+        <v>605</v>
       </c>
       <c r="C419" t="s">
         <v>2</v>
@@ -6803,10 +6806,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="B420" t="s">
-        <v>478</v>
+        <v>605</v>
       </c>
       <c r="C420" t="s">
         <v>2</v>
@@ -6814,10 +6817,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
       <c r="B421" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="C421" t="s">
         <v>2</v>
@@ -6825,10 +6828,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>480</v>
+        <v>441</v>
       </c>
       <c r="B422" t="s">
-        <v>316</v>
+        <v>442</v>
       </c>
       <c r="C422" t="s">
         <v>2</v>
@@ -6836,10 +6839,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="B423" t="s">
-        <v>247</v>
+        <v>377</v>
       </c>
       <c r="C423" t="s">
         <v>2</v>
@@ -6847,10 +6850,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>482</v>
+        <v>444</v>
       </c>
       <c r="B424" t="s">
-        <v>483</v>
+        <v>292</v>
       </c>
       <c r="C424" t="s">
         <v>2</v>
@@ -6858,10 +6861,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="B425" t="s">
-        <v>483</v>
+        <v>226</v>
       </c>
       <c r="C425" t="s">
         <v>2</v>
@@ -6869,10 +6872,10 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
       <c r="B426" t="s">
-        <v>485</v>
+        <v>606</v>
       </c>
       <c r="C426" t="s">
         <v>2</v>
@@ -6880,10 +6883,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>486</v>
+        <v>391</v>
       </c>
       <c r="B427" t="s">
-        <v>485</v>
+        <v>606</v>
       </c>
       <c r="C427" t="s">
         <v>2</v>
@@ -6891,21 +6894,21 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="B428" t="s">
-        <v>488</v>
+        <v>607</v>
       </c>
       <c r="C428" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="B429" t="s">
-        <v>248</v>
+        <v>607</v>
       </c>
       <c r="C429" t="s">
         <v>2</v>
@@ -6913,32 +6916,32 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>490</v>
+        <v>449</v>
       </c>
       <c r="B430" t="s">
-        <v>248</v>
+        <v>450</v>
       </c>
       <c r="C430" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="B431" t="s">
-        <v>492</v>
+        <v>227</v>
       </c>
       <c r="C431" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>493</v>
+        <v>452</v>
       </c>
       <c r="B432" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="C432" t="s">
         <v>2</v>
@@ -6946,21 +6949,21 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="B433" t="s">
-        <v>250</v>
+        <v>454</v>
       </c>
       <c r="C433" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="B434" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C434" t="s">
         <v>2</v>
@@ -6968,10 +6971,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="B435" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="C435" t="s">
         <v>2</v>
@@ -6979,10 +6982,10 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="B436" t="s">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c r="C436" t="s">
         <v>2</v>
@@ -6990,10 +6993,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="B437" t="s">
-        <v>60</v>
+        <v>232</v>
       </c>
       <c r="C437" t="s">
         <v>2</v>
@@ -7001,10 +7004,10 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="B438" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C438" t="s">
         <v>2</v>
@@ -7012,10 +7015,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="B439" t="s">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="C439" t="s">
         <v>2</v>
@@ -7023,10 +7026,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="B440" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C440" t="s">
         <v>2</v>
@@ -7034,54 +7037,54 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
       <c r="B441" t="s">
-        <v>503</v>
+        <v>229</v>
       </c>
       <c r="C441" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
       <c r="B442" t="s">
-        <v>369</v>
+        <v>54</v>
       </c>
       <c r="C442" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="B443" t="s">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="C443" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="B444" t="s">
-        <v>504</v>
+        <v>342</v>
       </c>
       <c r="C444" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="B445" t="s">
-        <v>386</v>
+        <v>466</v>
       </c>
       <c r="C445" t="s">
         <v>2</v>
@@ -7089,10 +7092,10 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="B446" t="s">
-        <v>509</v>
+        <v>466</v>
       </c>
       <c r="C446" t="s">
         <v>2</v>
@@ -7100,10 +7103,10 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>510</v>
+        <v>469</v>
       </c>
       <c r="B447" t="s">
-        <v>509</v>
+        <v>598</v>
       </c>
       <c r="C447" t="s">
         <v>2</v>
@@ -7111,10 +7114,10 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>511</v>
+        <v>470</v>
       </c>
       <c r="B448" t="s">
-        <v>260</v>
+        <v>471</v>
       </c>
       <c r="C448" t="s">
         <v>2</v>
@@ -7122,10 +7125,10 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>260</v>
+        <v>472</v>
       </c>
       <c r="B449" t="s">
-        <v>76</v>
+        <v>471</v>
       </c>
       <c r="C449" t="s">
         <v>2</v>
@@ -7133,10 +7136,10 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="B450" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="C450" t="s">
         <v>2</v>
@@ -7144,10 +7147,10 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>513</v>
+        <v>239</v>
       </c>
       <c r="B451" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="C451" t="s">
         <v>2</v>
@@ -7155,10 +7158,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="B452" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="C452" t="s">
         <v>2</v>
@@ -7166,10 +7169,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
       <c r="B453" t="s">
-        <v>258</v>
+        <v>170</v>
       </c>
       <c r="C453" t="s">
         <v>2</v>
@@ -7177,21 +7180,21 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>515</v>
+        <v>471</v>
       </c>
       <c r="B454" t="s">
-        <v>516</v>
+        <v>70</v>
       </c>
       <c r="C454" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>515</v>
+        <v>476</v>
       </c>
       <c r="B455" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="C455" t="s">
         <v>2</v>
@@ -7199,21 +7202,21 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
       <c r="B456" t="s">
-        <v>408</v>
+        <v>478</v>
       </c>
       <c r="C456" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>518</v>
+        <v>477</v>
       </c>
       <c r="B457" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C457" t="s">
         <v>2</v>
@@ -7221,10 +7224,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="B458" t="s">
-        <v>520</v>
+        <v>377</v>
       </c>
       <c r="C458" t="s">
         <v>2</v>
@@ -7232,21 +7235,21 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>521</v>
+        <v>480</v>
       </c>
       <c r="B459" t="s">
-        <v>172</v>
+        <v>591</v>
       </c>
       <c r="C459" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>522</v>
+        <v>481</v>
       </c>
       <c r="B460" t="s">
-        <v>520</v>
+        <v>608</v>
       </c>
       <c r="C460" t="s">
         <v>2</v>
@@ -7254,21 +7257,21 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>523</v>
+        <v>482</v>
       </c>
       <c r="B461" t="s">
-        <v>524</v>
+        <v>155</v>
       </c>
       <c r="C461" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>525</v>
+        <v>483</v>
       </c>
       <c r="B462" t="s">
-        <v>429</v>
+        <v>608</v>
       </c>
       <c r="C462" t="s">
         <v>2</v>
@@ -7276,10 +7279,10 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>525</v>
+        <v>484</v>
       </c>
       <c r="B463" t="s">
-        <v>428</v>
+        <v>609</v>
       </c>
       <c r="C463" t="s">
         <v>2</v>
@@ -7287,10 +7290,10 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>526</v>
+        <v>485</v>
       </c>
       <c r="B464" t="s">
-        <v>524</v>
+        <v>397</v>
       </c>
       <c r="C464" t="s">
         <v>2</v>
@@ -7298,10 +7301,10 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>527</v>
+        <v>485</v>
       </c>
       <c r="B465" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="C465" t="s">
         <v>2</v>
@@ -7309,10 +7312,10 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>527</v>
+        <v>486</v>
       </c>
       <c r="B466" t="s">
-        <v>428</v>
+        <v>609</v>
       </c>
       <c r="C466" t="s">
         <v>2</v>
@@ -7320,10 +7323,10 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>429</v>
+        <v>487</v>
       </c>
       <c r="B467" t="s">
-        <v>524</v>
+        <v>397</v>
       </c>
       <c r="C467" t="s">
         <v>2</v>
@@ -7331,10 +7334,10 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>528</v>
+        <v>487</v>
       </c>
       <c r="B468" t="s">
-        <v>269</v>
+        <v>396</v>
       </c>
       <c r="C468" t="s">
         <v>2</v>
@@ -7342,10 +7345,10 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>529</v>
+        <v>397</v>
       </c>
       <c r="B469" t="s">
-        <v>271</v>
+        <v>609</v>
       </c>
       <c r="C469" t="s">
         <v>2</v>
@@ -7353,10 +7356,10 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>530</v>
+        <v>488</v>
       </c>
       <c r="B470" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="C470" t="s">
         <v>2</v>
@@ -7364,10 +7367,10 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>531</v>
+        <v>489</v>
       </c>
       <c r="B471" t="s">
-        <v>532</v>
+        <v>250</v>
       </c>
       <c r="C471" t="s">
         <v>2</v>
@@ -7375,10 +7378,10 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>532</v>
+        <v>490</v>
       </c>
       <c r="B472" t="s">
-        <v>533</v>
+        <v>584</v>
       </c>
       <c r="C472" t="s">
         <v>2</v>
@@ -7386,10 +7389,10 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>534</v>
+        <v>491</v>
       </c>
       <c r="B473" t="s">
-        <v>532</v>
+        <v>492</v>
       </c>
       <c r="C473" t="s">
         <v>2</v>
@@ -7397,10 +7400,10 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>407</v>
+        <v>492</v>
       </c>
       <c r="B474" t="s">
-        <v>533</v>
+        <v>610</v>
       </c>
       <c r="C474" t="s">
         <v>2</v>
@@ -7408,10 +7411,10 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>535</v>
+        <v>493</v>
       </c>
       <c r="B475" t="s">
-        <v>536</v>
+        <v>492</v>
       </c>
       <c r="C475" t="s">
         <v>2</v>
@@ -7419,10 +7422,10 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>537</v>
+        <v>376</v>
       </c>
       <c r="B476" t="s">
-        <v>538</v>
+        <v>610</v>
       </c>
       <c r="C476" t="s">
         <v>2</v>
@@ -7430,10 +7433,10 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="B477" t="s">
-        <v>279</v>
+        <v>495</v>
       </c>
       <c r="C477" t="s">
         <v>2</v>
@@ -7441,10 +7444,10 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>540</v>
+        <v>496</v>
       </c>
       <c r="B478" t="s">
-        <v>275</v>
+        <v>497</v>
       </c>
       <c r="C478" t="s">
         <v>2</v>
@@ -7452,10 +7455,10 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="B479" t="s">
-        <v>362</v>
+        <v>585</v>
       </c>
       <c r="C479" t="s">
         <v>2</v>
@@ -7463,10 +7466,10 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="B480" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="C480" t="s">
         <v>2</v>
@@ -7474,10 +7477,10 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>542</v>
+        <v>497</v>
       </c>
       <c r="B481" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="C481" t="s">
         <v>2</v>
@@ -7485,10 +7488,10 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>543</v>
+        <v>500</v>
       </c>
       <c r="B482" t="s">
-        <v>279</v>
+        <v>585</v>
       </c>
       <c r="C482" t="s">
         <v>2</v>
@@ -7496,10 +7499,10 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>544</v>
+        <v>501</v>
       </c>
       <c r="B483" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="C483" t="s">
         <v>2</v>
@@ -7507,10 +7510,10 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>545</v>
+        <v>502</v>
       </c>
       <c r="B484" t="s">
-        <v>284</v>
+        <v>585</v>
       </c>
       <c r="C484" t="s">
         <v>2</v>
@@ -7518,10 +7521,10 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>546</v>
+        <v>503</v>
       </c>
       <c r="B485" t="s">
-        <v>285</v>
+        <v>585</v>
       </c>
       <c r="C485" t="s">
         <v>2</v>
@@ -7529,10 +7532,10 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>547</v>
+        <v>504</v>
       </c>
       <c r="B486" t="s">
-        <v>548</v>
+        <v>261</v>
       </c>
       <c r="C486" t="s">
         <v>2</v>
@@ -7540,10 +7543,10 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>548</v>
+        <v>505</v>
       </c>
       <c r="B487" t="s">
-        <v>549</v>
+        <v>262</v>
       </c>
       <c r="C487" t="s">
         <v>2</v>
@@ -7551,10 +7554,10 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>550</v>
+        <v>506</v>
       </c>
       <c r="B488" t="s">
-        <v>548</v>
+        <v>507</v>
       </c>
       <c r="C488" t="s">
         <v>2</v>
@@ -7562,10 +7565,10 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>551</v>
+        <v>507</v>
       </c>
       <c r="B489" t="s">
-        <v>549</v>
+        <v>611</v>
       </c>
       <c r="C489" t="s">
         <v>2</v>
@@ -7573,10 +7576,10 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>552</v>
+        <v>508</v>
       </c>
       <c r="B490" t="s">
-        <v>290</v>
+        <v>507</v>
       </c>
       <c r="C490" t="s">
         <v>2</v>
@@ -7584,10 +7587,10 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>553</v>
+        <v>509</v>
       </c>
       <c r="B491" t="s">
-        <v>515</v>
+        <v>611</v>
       </c>
       <c r="C491" t="s">
         <v>2</v>
@@ -7595,10 +7598,10 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>553</v>
+        <v>510</v>
       </c>
       <c r="B492" t="s">
-        <v>516</v>
+        <v>586</v>
       </c>
       <c r="C492" t="s">
         <v>2</v>
@@ -7606,10 +7609,10 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>554</v>
+        <v>511</v>
       </c>
       <c r="B493" t="s">
-        <v>553</v>
+        <v>477</v>
       </c>
       <c r="C493" t="s">
         <v>2</v>
@@ -7617,10 +7620,10 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>555</v>
+        <v>511</v>
       </c>
       <c r="B494" t="s">
-        <v>294</v>
+        <v>478</v>
       </c>
       <c r="C494" t="s">
         <v>2</v>
@@ -7628,10 +7631,10 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>556</v>
+        <v>512</v>
       </c>
       <c r="B495" t="s">
-        <v>245</v>
+        <v>511</v>
       </c>
       <c r="C495" t="s">
         <v>2</v>
@@ -7639,10 +7642,10 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>557</v>
+        <v>513</v>
       </c>
       <c r="B496" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="C496" t="s">
         <v>2</v>
@@ -7650,10 +7653,10 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>558</v>
+        <v>514</v>
       </c>
       <c r="B497" t="s">
-        <v>295</v>
+        <v>224</v>
       </c>
       <c r="C497" t="s">
         <v>2</v>
@@ -7661,10 +7664,10 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>559</v>
+        <v>515</v>
       </c>
       <c r="B498" t="s">
-        <v>25</v>
+        <v>271</v>
       </c>
       <c r="C498" t="s">
         <v>2</v>
@@ -7672,10 +7675,10 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>560</v>
+        <v>516</v>
       </c>
       <c r="B499" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="C499" t="s">
         <v>2</v>
@@ -7683,10 +7686,10 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>561</v>
+        <v>517</v>
       </c>
       <c r="B500" t="s">
-        <v>302</v>
+        <v>24</v>
       </c>
       <c r="C500" t="s">
         <v>2</v>
@@ -7694,10 +7697,10 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>562</v>
+        <v>518</v>
       </c>
       <c r="B501" t="s">
-        <v>122</v>
+        <v>278</v>
       </c>
       <c r="C501" t="s">
         <v>2</v>
@@ -7705,10 +7708,10 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>563</v>
+        <v>519</v>
       </c>
       <c r="B502" t="s">
-        <v>122</v>
+        <v>278</v>
       </c>
       <c r="C502" t="s">
         <v>2</v>
@@ -7716,10 +7719,10 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>564</v>
+        <v>520</v>
       </c>
       <c r="B503" t="s">
-        <v>314</v>
+        <v>595</v>
       </c>
       <c r="C503" t="s">
         <v>2</v>
@@ -7727,10 +7730,10 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>565</v>
+        <v>521</v>
       </c>
       <c r="B504" t="s">
-        <v>503</v>
+        <v>595</v>
       </c>
       <c r="C504" t="s">
         <v>2</v>
@@ -7738,10 +7741,10 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>566</v>
+        <v>522</v>
       </c>
       <c r="B505" t="s">
-        <v>492</v>
+        <v>290</v>
       </c>
       <c r="C505" t="s">
         <v>2</v>
@@ -7749,21 +7752,21 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>567</v>
+        <v>523</v>
       </c>
       <c r="B506" t="s">
-        <v>568</v>
+        <v>465</v>
       </c>
       <c r="C506" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>567</v>
+        <v>524</v>
       </c>
       <c r="B507" t="s">
-        <v>569</v>
+        <v>454</v>
       </c>
       <c r="C507" t="s">
         <v>2</v>
@@ -7771,21 +7774,21 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="B508" t="s">
-        <v>492</v>
+        <v>526</v>
       </c>
       <c r="C508" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>571</v>
+        <v>525</v>
       </c>
       <c r="B509" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="C509" t="s">
         <v>2</v>
@@ -7793,10 +7796,10 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>572</v>
+        <v>528</v>
       </c>
       <c r="B510" t="s">
-        <v>327</v>
+        <v>454</v>
       </c>
       <c r="C510" t="s">
         <v>2</v>
@@ -7804,10 +7807,10 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>573</v>
+        <v>529</v>
       </c>
       <c r="B511" t="s">
-        <v>324</v>
+        <v>454</v>
       </c>
       <c r="C511" t="s">
         <v>2</v>
@@ -7815,10 +7818,10 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>574</v>
+        <v>530</v>
       </c>
       <c r="B512" t="s">
-        <v>503</v>
+        <v>589</v>
       </c>
       <c r="C512" t="s">
         <v>2</v>
@@ -7826,21 +7829,21 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="B513" t="s">
-        <v>576</v>
+        <v>299</v>
       </c>
       <c r="C513" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>577</v>
+        <v>532</v>
       </c>
       <c r="B514" t="s">
-        <v>388</v>
+        <v>465</v>
       </c>
       <c r="C514" t="s">
         <v>2</v>
@@ -7848,21 +7851,21 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="B515" t="s">
-        <v>332</v>
+        <v>534</v>
       </c>
       <c r="C515" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>579</v>
+        <v>535</v>
       </c>
       <c r="B516" t="s">
-        <v>332</v>
+        <v>599</v>
       </c>
       <c r="C516" t="s">
         <v>2</v>
@@ -7870,10 +7873,10 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>488</v>
+        <v>536</v>
       </c>
       <c r="B517" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="C517" t="s">
         <v>2</v>
@@ -7881,10 +7884,10 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>580</v>
+        <v>537</v>
       </c>
       <c r="B518" t="s">
-        <v>581</v>
+        <v>306</v>
       </c>
       <c r="C518" t="s">
         <v>2</v>
@@ -7892,10 +7895,10 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>582</v>
+        <v>450</v>
       </c>
       <c r="B519" t="s">
-        <v>581</v>
+        <v>306</v>
       </c>
       <c r="C519" t="s">
         <v>2</v>
@@ -7903,10 +7906,10 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>583</v>
+        <v>538</v>
       </c>
       <c r="B520" t="s">
-        <v>336</v>
+        <v>612</v>
       </c>
       <c r="C520" t="s">
         <v>2</v>
@@ -7914,10 +7917,10 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>584</v>
+        <v>539</v>
       </c>
       <c r="B521" t="s">
-        <v>27</v>
+        <v>612</v>
       </c>
       <c r="C521" t="s">
         <v>2</v>
@@ -7925,21 +7928,21 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>584</v>
+        <v>540</v>
       </c>
       <c r="B522" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C522" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="B523" t="s">
-        <v>341</v>
+        <v>570</v>
       </c>
       <c r="C523" t="s">
         <v>2</v>
@@ -7947,21 +7950,21 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>587</v>
+        <v>541</v>
       </c>
       <c r="B524" t="s">
-        <v>341</v>
+        <v>542</v>
       </c>
       <c r="C524" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>588</v>
+        <v>543</v>
       </c>
       <c r="B525" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="C525" t="s">
         <v>2</v>
@@ -7969,10 +7972,10 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>589</v>
+        <v>544</v>
       </c>
       <c r="B526" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="C526" t="s">
         <v>2</v>
@@ -7980,10 +7983,10 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>590</v>
+        <v>545</v>
       </c>
       <c r="B527" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="C527" t="s">
         <v>2</v>
@@ -7991,10 +7994,10 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="B528" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="C528" t="s">
         <v>2</v>
@@ -8002,10 +8005,10 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>349</v>
+        <v>547</v>
       </c>
       <c r="B529" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="C529" t="s">
         <v>2</v>
@@ -8013,10 +8016,10 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>591</v>
+        <v>547</v>
       </c>
       <c r="B530" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="C530" t="s">
         <v>2</v>
@@ -8024,10 +8027,10 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>592</v>
+        <v>322</v>
       </c>
       <c r="B531" t="s">
-        <v>589</v>
+        <v>336</v>
       </c>
       <c r="C531" t="s">
         <v>2</v>
@@ -8035,10 +8038,10 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>593</v>
+        <v>548</v>
       </c>
       <c r="B532" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="C532" t="s">
         <v>2</v>
@@ -8046,10 +8049,10 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>594</v>
+        <v>549</v>
       </c>
       <c r="B533" t="s">
-        <v>353</v>
+        <v>546</v>
       </c>
       <c r="C533" t="s">
         <v>2</v>
@@ -8057,10 +8060,10 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>594</v>
+        <v>550</v>
       </c>
       <c r="B534" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C534" t="s">
         <v>2</v>
@@ -8068,10 +8071,10 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>595</v>
+        <v>551</v>
       </c>
       <c r="B535" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="C535" t="s">
         <v>2</v>
@@ -8079,10 +8082,10 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>596</v>
+        <v>551</v>
       </c>
       <c r="B536" t="s">
-        <v>589</v>
+        <v>327</v>
       </c>
       <c r="C536" t="s">
         <v>2</v>
@@ -8090,10 +8093,10 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>597</v>
+        <v>552</v>
       </c>
       <c r="B537" t="s">
-        <v>596</v>
+        <v>324</v>
       </c>
       <c r="C537" t="s">
         <v>2</v>
@@ -8101,10 +8104,10 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>598</v>
+        <v>553</v>
       </c>
       <c r="B538" t="s">
-        <v>599</v>
+        <v>546</v>
       </c>
       <c r="C538" t="s">
         <v>2</v>
@@ -8112,10 +8115,10 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>600</v>
+        <v>554</v>
       </c>
       <c r="B539" t="s">
-        <v>599</v>
+        <v>553</v>
       </c>
       <c r="C539" t="s">
         <v>2</v>
@@ -8123,21 +8126,21 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="B540" t="s">
-        <v>601</v>
+        <v>556</v>
       </c>
       <c r="C540" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>602</v>
+        <v>557</v>
       </c>
       <c r="B541" t="s">
-        <v>599</v>
+        <v>556</v>
       </c>
       <c r="C541" t="s">
         <v>2</v>
@@ -8145,21 +8148,21 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>603</v>
+        <v>556</v>
       </c>
       <c r="B542" t="s">
-        <v>599</v>
+        <v>558</v>
       </c>
       <c r="C542" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>604</v>
+        <v>559</v>
       </c>
       <c r="B543" t="s">
-        <v>599</v>
+        <v>556</v>
       </c>
       <c r="C543" t="s">
         <v>2</v>
@@ -8167,10 +8170,10 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>605</v>
+        <v>560</v>
       </c>
       <c r="B544" t="s">
-        <v>457</v>
+        <v>556</v>
       </c>
       <c r="C544" t="s">
         <v>2</v>
@@ -8178,10 +8181,10 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>606</v>
+        <v>561</v>
       </c>
       <c r="B545" t="s">
-        <v>457</v>
+        <v>556</v>
       </c>
       <c r="C545" t="s">
         <v>2</v>
@@ -8189,10 +8192,10 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>607</v>
+        <v>562</v>
       </c>
       <c r="B546" t="s">
-        <v>608</v>
+        <v>424</v>
       </c>
       <c r="C546" t="s">
         <v>2</v>
@@ -8200,10 +8203,10 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>609</v>
+        <v>563</v>
       </c>
       <c r="B547" t="s">
-        <v>607</v>
+        <v>424</v>
       </c>
       <c r="C547" t="s">
         <v>2</v>
@@ -8211,12 +8214,34 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>458</v>
+        <v>564</v>
       </c>
       <c r="B548" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="C548" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>565</v>
+      </c>
+      <c r="B549" t="s">
+        <v>564</v>
+      </c>
+      <c r="C549" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>425</v>
+      </c>
+      <c r="B550" t="s">
+        <v>613</v>
+      </c>
+      <c r="C550" t="s">
         <v>2</v>
       </c>
     </row>
